--- a/gf-bench/results/results-2022-06-03.xlsx
+++ b/gf-bench/results/results-2022-06-03.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Intel-i7-10710U" sheetId="1" state="visible" r:id="rId2"/>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">gf-sensor608-8</t>
   </si>
   <si>
+    <t xml:space="preserve">gf-nishida-region-16-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">gf-nishida-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gf-nishida-region-16-1</t>
   </si>
   <si>
     <t xml:space="preserve">gf-nishida-8</t>
@@ -222,6 +222,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -285,7 +294,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -297,10 +306,971 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36400486420754"/>
-          <c:y val="0.0269937643583853"/>
-          <c:w val="0.549736522091609"/>
-          <c:h val="0.843616672136528"/>
+          <c:x val="0.364389570302981"/>
+          <c:y val="0.0390434358223524"/>
+          <c:w val="0.550320851271221"/>
+          <c:h val="0.800390434358224"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Intel-i7-10710U'!$J$3:$J$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>gf-plank-32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gf-ff-64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gf-complete-32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gf-complete-64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gf-ff-32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gf-plank-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gf-plank-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>gf-plank-logtable-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gf-sensor608-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gf-nishida-16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>gf-nishida-region-16-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>gf-nishida-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>gf-nishida-region-16-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>gf-nishida-region-16-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>gf-nishida-region-16-4-SSE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>gf-nishida-region-16-4-AVX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel-i7-10710U'!$K$3:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.251062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.682573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.490744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.022962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.855461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>301.563785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>357.806831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>586.556156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>935.440877</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1369.197025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1427.098539</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1667.438508</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3724.495029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3849.62406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9524.358733</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14873.387385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="82669774"/>
+        <c:axId val="20634669"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="82669774"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20634669"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="20634669"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Processing Speed (MB/s) - Division</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.437251238729591"/>
+              <c:y val="0.906588579795022"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82669774"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.365857726628305"/>
+          <c:y val="0.0194914503411004"/>
+          <c:w val="0.5858560587107"/>
+          <c:h val="0.832019137060335"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM-Cortex-A72'!$A$3:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>gf-aes-gcm-128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gf-plank-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gf-plank-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gf-ff-64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gf-ff-32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gf-plank-32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gf-plank-logtable-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>gf-nishida-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gf-complete-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gf-complete-32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>gf-nishida-8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>gf-sensor608-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>gf-nishida-region-16-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>gf-nishida-region-16-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>gf-complete-region-64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>gf-nishida-region-16-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>gf-complete-region-32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>gf-complete-region-16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>gf-nishida-region-16-4-NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM-Cortex-A72'!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.556129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3600678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9572372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8447326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0632248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1153318</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1983664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.6014038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.446517</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.981585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.3686786</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.3947852</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.852247</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131.332412</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>163.288972</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>215.019805</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>341.19333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>587.772383</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>640.246095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="86254012"/>
+        <c:axId val="69628923"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="86254012"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69628923"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69628923"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Processing Speed (MB/s) - Multiplication</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.414894504211492"/>
+              <c:y val="0.911313900947993"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86254012"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.386724259520451"/>
+          <c:y val="0.0193283662671418"/>
+          <c:w val="0.597496473906911"/>
+          <c:h val="0.79710614404492"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM-Cortex-A72'!$J$3:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>gf-plank-32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gf-complete-64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gf-ff-32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gf-ff-64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gf-complete-32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gf-plank-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gf-plank-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>gf-plank-logtable-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gf-sensor608-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gf-nishida-8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>gf-nishida-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>gf-nishida-region-16-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>gf-nishida-region-16-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>gf-nishida-region-16-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>gf-nishida-region-16-4-NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM-Cortex-A72'!$K$3:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0599758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.346725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4495552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.451065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.728591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.730867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2499032</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3484308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.7959406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0962982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.6524226</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.877424</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>131.459201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>215.024095</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>640.606574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="58539982"/>
+        <c:axId val="78891162"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="58539982"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78891162"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78891162"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Processing Speed (MB/s) - Division</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.466590267983075"/>
+              <c:y val="0.889428787387971"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58539982"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.363953582731478"/>
+          <c:y val="0.0269959793222286"/>
+          <c:w val="0.549703805891423"/>
+          <c:h val="0.843521785509149"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -378,10 +1348,10 @@
                   <c:v>gf-complete-32</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>gf-nishida-region-16-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>gf-nishida-16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>gf-nishida-region-16-1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>gf-nishida-8</c:v>
@@ -447,13 +1417,13 @@
                   <c:v>577.850516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1094.450899</c:v>
+                  <c:v>1177.605711</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1369.507959</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1397.35131</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1406.294376</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2386.058706</c:v>
@@ -462,28 +1432,28 @@
                   <c:v>2405.045334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2470.432017</c:v>
+                  <c:v>2531.178733</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2540.195367</c:v>
+                  <c:v>3373.174566</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3738.42421</c:v>
+                  <c:v>3733.005529</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3832.100126</c:v>
+                  <c:v>3822.424492</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4913.226848</c:v>
+                  <c:v>4959.274861</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8339.047427</c:v>
+                  <c:v>8093.530866</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9231.163109</c:v>
+                  <c:v>9214.118477</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14164.972127</c:v>
+                  <c:v>13553.14846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -491,11 +1461,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="22095593"/>
-        <c:axId val="99906685"/>
+        <c:axId val="81047406"/>
+        <c:axId val="76610621"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22095593"/>
+        <c:axId val="81047406"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,7 +1493,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99906685"/>
+        <c:crossAx val="76610621"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -531,7 +1501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99906685"/>
+        <c:axId val="76610621"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,8 +1540,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.397405755978922"/>
-              <c:y val="0.929028552674762"/>
+              <c:x val="0.397386999918851"/>
+              <c:y val="0.92894067448921"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -604,968 +1574,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22095593"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.364440477156537"/>
-          <c:y val="0.0390396252195979"/>
-          <c:w val="0.550352998458168"/>
-          <c:h val="0.800507515127855"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Intel-i7-10710U'!$J$3:$J$18</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>gf-plank-32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>gf-ff-64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>gf-complete-32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gf-complete-64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>gf-ff-32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>gf-plank-8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>gf-plank-16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>gf-plank-logtable-16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>gf-sensor608-8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>gf-nishida-16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>gf-nishida-region-16-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>gf-nishida-8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>gf-nishida-region-16-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>gf-nishida-region-16-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>gf-nishida-region-16-4-SSE</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>gf-nishida-region-16-4-AVX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Intel-i7-10710U'!$K$3:$K$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>6.251062</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.682573</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.845508</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.499117</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.855461</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>301.563785</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>357.806831</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>586.556156</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>935.440877</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1369.197025</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1398.215637</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1667.438508</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3745.230683</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3837.928478</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9337.953675</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14486.356794</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="48082674"/>
-        <c:axId val="51808867"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="48082674"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="51808867"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="51808867"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="15000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Processing Speed (MB/s) - Division</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.445346100787146"/>
-              <c:y val="0.906695295725161"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="48082674"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.365908522869283"/>
-          <c:y val="0.0194897236002835"/>
-          <c:w val="0.585936849121053"/>
-          <c:h val="0.832122608079376"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM-Cortex-A72'!$A$3:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>gf-aes-gcm-128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>gf-plank-16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>gf-plank-8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gf-ff-64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>gf-ff-32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>gf-plank-32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>gf-plank-logtable-16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>gf-nishida-16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>gf-complete-64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>gf-complete-32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>gf-nishida-8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>gf-sensor608-8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>gf-nishida-region-16-1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>gf-nishida-region-16-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>gf-complete-region-64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>gf-nishida-region-16-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>gf-complete-region-32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>gf-complete-region-16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>gf-nishida-region-16-4-NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM-Cortex-A72'!$B$3:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.556129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3600678</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9572372</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.8447326</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0632248</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.1153318</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.1983664</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.6014038</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.4484686</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.9842816</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39.3686786</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>39.3947852</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>66.617952</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>131.854571</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>163.3112374</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>215.248869</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>341.6331734</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>587.8057852</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>642.175772</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="73214718"/>
-        <c:axId val="61470882"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="73214718"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="61470882"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="61470882"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Processing Speed (MB/s) - Multiplication</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.414896275931017"/>
-              <c:y val="0.911410347271439"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="73214718"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.386770016735665"/>
-          <c:y val="0.0193262794212913"/>
-          <c:w val="0.597551308024311"/>
-          <c:h val="0.797236018138631"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM-Cortex-A72'!$J$3:$J$17</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>gf-plank-32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>gf-complete-64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>gf-ff-32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gf-ff-64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>gf-complete-32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>gf-plank-8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>gf-plank-16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>gf-plank-logtable-16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>gf-sensor608-8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>gf-nishida-8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>gf-nishida-16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>gf-nishida-region-16-1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>gf-nishida-region-16-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>gf-nishida-region-16-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>gf-nishida-region-16-4-NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM-Cortex-A72'!$K$3:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.0599758</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.362041</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4495552</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.451065</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6319812</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.730867</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.2499032</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.3484308</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.7959406</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0962982</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.6524226</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66.011651</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>131.401273</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>215.073412</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>641.317507</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="54598307"/>
-        <c:axId val="27942102"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="54598307"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="27942102"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="27942102"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Processing Speed (MB/s) - Division</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.457764467541619"/>
-              <c:y val="0.889548693586698"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="54598307"/>
+        <c:crossAx val="81047406"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1603,9 +1612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>16920</xdr:colOff>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1614,7 +1623,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3179520" y="239040"/>
-        <a:ext cx="4440240" cy="4387320"/>
+        <a:ext cx="4435920" cy="4386960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1633,9 +1642,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>12240</xdr:colOff>
+      <xdr:colOff>11880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1643,8 +1652,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11589120" y="324000"/>
-        <a:ext cx="4435920" cy="3688200"/>
+        <a:off x="11584080" y="324000"/>
+        <a:ext cx="4431600" cy="3687840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1668,9 +1677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>58680</xdr:colOff>
+      <xdr:colOff>58320</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1679,7 +1688,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3441240" y="38160"/>
-        <a:ext cx="4320720" cy="4063320"/>
+        <a:ext cx="4316400" cy="4062960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1698,9 +1707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>366840</xdr:colOff>
+      <xdr:colOff>366480</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1708,8 +1717,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11686320" y="360"/>
-        <a:ext cx="4086720" cy="3333960"/>
+        <a:off x="11681640" y="360"/>
+        <a:ext cx="4083480" cy="3333600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1729,15 +1738,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N35" activeCellId="0" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="10.17"/>
   </cols>
@@ -1783,7 +1792,7 @@
       <c r="J3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="2" t="n">
         <v>6.251062</v>
       </c>
     </row>
@@ -1797,7 +1806,7 @@
       <c r="J4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="2" t="n">
         <v>17.682573</v>
       </c>
     </row>
@@ -1811,8 +1820,8 @@
       <c r="J5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>20.845508</v>
+      <c r="K5" s="2" t="n">
+        <v>20.490744</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,8 +1834,8 @@
       <c r="J6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>29.499117</v>
+      <c r="K6" s="2" t="n">
+        <v>29.022962</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,7 +1848,7 @@
       <c r="J7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="2" t="n">
         <v>34.855461</v>
       </c>
     </row>
@@ -1853,7 +1862,7 @@
       <c r="J8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="2" t="n">
         <v>301.563785</v>
       </c>
     </row>
@@ -1867,7 +1876,7 @@
       <c r="J9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="2" t="n">
         <v>357.806831</v>
       </c>
     </row>
@@ -1881,7 +1890,7 @@
       <c r="J10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="2" t="n">
         <v>586.556156</v>
       </c>
     </row>
@@ -1890,12 +1899,12 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1094.450899</v>
+        <v>1177.605711</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="2" t="n">
         <v>935.440877</v>
       </c>
     </row>
@@ -1904,12 +1913,12 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1397.35131</v>
+        <v>1369.507959</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2" t="n">
         <v>1369.197025</v>
       </c>
     </row>
@@ -1918,13 +1927,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1406.294376</v>
+        <v>1397.35131</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>1398.215637</v>
+        <v>15</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>1427.098539</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,7 +1946,7 @@
       <c r="J14" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="2" t="n">
         <v>1667.438508</v>
       </c>
     </row>
@@ -1951,8 +1960,8 @@
       <c r="J15" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="0" t="n">
-        <v>3745.230683</v>
+      <c r="K15" s="2" t="n">
+        <v>3724.495029</v>
       </c>
       <c r="AMD15" s="0"/>
       <c r="AME15" s="0"/>
@@ -1967,13 +1976,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2470.432017</v>
+        <v>2531.178733</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="0" t="n">
-        <v>3837.928478</v>
+      <c r="K16" s="2" t="n">
+        <v>3849.62406</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,13 +1990,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2540.195367</v>
+        <v>3373.174566</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <v>9337.953675</v>
+      <c r="K17" s="2" t="n">
+        <v>9524.358733</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,13 +2004,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3738.42421</v>
+        <v>3733.005529</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="0" t="n">
-        <v>14486.356794</v>
+      <c r="K18" s="2" t="n">
+        <v>14873.387385</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,7 +2018,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3832.100126</v>
+        <v>3822.424492</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
@@ -2019,7 +2028,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>4913.226848</v>
+        <v>4959.274861</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,7 +2036,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>8339.047427</v>
+        <v>8093.530866</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,7 +2044,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>9231.163109</v>
+        <v>9214.118477</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2052,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>14164.972127</v>
+        <v>13553.14846</v>
       </c>
     </row>
   </sheetData>
@@ -2065,11 +2074,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.18"/>
@@ -2135,7 +2144,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.362041</v>
+        <v>0.346725</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2177,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.6319812</v>
+        <v>0.728591</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,7 +2219,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>12.6014038</v>
@@ -2227,7 +2236,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>13.4484686</v>
+        <v>13.446517</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>14</v>
@@ -2241,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>13.9842816</v>
+        <v>13.981585</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>17</v>
@@ -2258,7 +2267,7 @@
         <v>39.3686786</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>12.6524226</v>
@@ -2272,24 +2281,24 @@
         <v>39.3947852</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>66.011651</v>
+        <v>65.877424</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>66.617952</v>
+        <v>65.852247</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>20</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>131.401273</v>
+        <v>131.459201</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,13 +2306,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>131.854571</v>
+        <v>131.332412</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>215.073412</v>
+        <v>215.024095</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,13 +2320,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>163.3112374</v>
+        <v>163.288972</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>25</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>641.317507</v>
+        <v>640.606574</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,7 +2334,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>215.248869</v>
+        <v>215.019805</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
@@ -2335,7 +2344,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>341.6331734</v>
+        <v>341.19333</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2343,7 +2352,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>587.8057852</v>
+        <v>587.772383</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,7 +2360,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>642.175772</v>
+        <v>640.246095</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
